--- a/sputnik/personal/cel/cel35.xlsx
+++ b/sputnik/personal/cel/cel35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,6 +205,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,7 +516,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,9 +592,15 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1000</v>
+      </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel35.xlsx
+++ b/sputnik/personal/cel/cel35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2020</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -604,10 +607,16 @@
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="17">
+        <v>44113</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel35.xlsx
+++ b/sputnik/personal/cel/cel35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2020</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
@@ -168,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +221,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -516,10 +532,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,6 +632,54 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>44235</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>44235</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>44235</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>44235</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12">
+        <v>1449</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/cel/cel35.xlsx
+++ b/sputnik/personal/cel/cel35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,6 +687,54 @@
       <c r="D12" s="12">
         <v>1449</v>
       </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11">
+        <v>170</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel35.xlsx
+++ b/sputnik/personal/cel/cel35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -540,8 +546,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -695,10 +701,10 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>1000</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
@@ -707,34 +713,46 @@
       <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>170</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="17">
+        <v>44470</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="17">
+        <v>44470</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
+        <v>170</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
